--- a/_7_homeworks/_13_hw/temp/exported_data.xlsx
+++ b/_7_homeworks/_13_hw/temp/exported_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,6 +731,150 @@
         <v>43</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>79</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>80</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>banana</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>81</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>82</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>83</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>banana</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>84</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>8</v>
+      </c>
+      <c r="D25" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>85</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>86</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>banana</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>87</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
